--- a/Code/Results/Cases/Case_5_188/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_188/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.241400140809333</v>
+        <v>0.9329097690173285</v>
       </c>
       <c r="C2">
-        <v>0.1706343076735095</v>
+        <v>0.05228061303763809</v>
       </c>
       <c r="D2">
-        <v>0.06751359442652038</v>
+        <v>0.1156676683936873</v>
       </c>
       <c r="E2">
-        <v>0.02362038044006098</v>
+        <v>0.06005454773046726</v>
       </c>
       <c r="F2">
-        <v>1.451896072162825</v>
+        <v>2.075524740652597</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,22 +442,22 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9917696804985638</v>
+        <v>1.688420095166613</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.281387157762936</v>
+        <v>0.7479508682363019</v>
       </c>
       <c r="L2">
-        <v>0.1696397758515573</v>
+        <v>0.2249561431623661</v>
       </c>
       <c r="M2">
-        <v>0.2602798259418613</v>
+        <v>0.2387367315177471</v>
       </c>
       <c r="N2">
-        <v>1.658880940108801</v>
+        <v>3.034829201778081</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.086402342336299</v>
+        <v>0.8966713425648436</v>
       </c>
       <c r="C3">
-        <v>0.1475387074669072</v>
+        <v>0.04550233385448621</v>
       </c>
       <c r="D3">
-        <v>0.06866030321725525</v>
+        <v>0.1157624700084838</v>
       </c>
       <c r="E3">
-        <v>0.02333836911223219</v>
+        <v>0.06020361776105077</v>
       </c>
       <c r="F3">
-        <v>1.371201180165528</v>
+        <v>2.06421932893889</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,22 +489,22 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.962716556309914</v>
+        <v>1.688000342013609</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.114505258099967</v>
+        <v>0.7065628561795165</v>
       </c>
       <c r="L3">
-        <v>0.1546101678690164</v>
+        <v>0.2222859337750123</v>
       </c>
       <c r="M3">
-        <v>0.2300301833569129</v>
+        <v>0.2320865127834075</v>
       </c>
       <c r="N3">
-        <v>1.691845468776627</v>
+        <v>3.050060697382982</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9924387309711733</v>
+        <v>0.8749476440333126</v>
       </c>
       <c r="C4">
-        <v>0.1334993851321826</v>
+        <v>0.04133518365787836</v>
       </c>
       <c r="D4">
-        <v>0.06936705188941161</v>
+        <v>0.1158200975665409</v>
       </c>
       <c r="E4">
-        <v>0.02318443594357067</v>
+        <v>0.06030932923139698</v>
       </c>
       <c r="F4">
-        <v>1.323887958769532</v>
+        <v>2.058230358761762</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,22 +536,22 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.946304582213088</v>
+        <v>1.688397463660664</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.013264877800964</v>
+        <v>0.6815773114576018</v>
       </c>
       <c r="L4">
-        <v>0.1455968728905006</v>
+        <v>0.2207555003845272</v>
       </c>
       <c r="M4">
-        <v>0.2117393619757202</v>
+        <v>0.2281344809301373</v>
       </c>
       <c r="N4">
-        <v>1.713815788181876</v>
+        <v>3.060176053919903</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9544191041822216</v>
+        <v>0.86622775164426</v>
       </c>
       <c r="C5">
-        <v>0.127807847248036</v>
+        <v>0.03963563088287003</v>
       </c>
       <c r="D5">
-        <v>0.06965587000566309</v>
+        <v>0.1158434391262482</v>
       </c>
       <c r="E5">
-        <v>0.02312640864080606</v>
+        <v>0.06035598249798912</v>
       </c>
       <c r="F5">
-        <v>1.305133697445257</v>
+        <v>2.056029287262149</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,22 +583,22 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9399563745445576</v>
+        <v>1.688723973268502</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9722808266232619</v>
+        <v>0.6715028810066883</v>
       </c>
       <c r="L5">
-        <v>0.1419740442879274</v>
+        <v>0.2201592984920069</v>
       </c>
       <c r="M5">
-        <v>0.2043501582552096</v>
+        <v>0.2265570411517146</v>
       </c>
       <c r="N5">
-        <v>1.723189210367522</v>
+        <v>3.064489997482568</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9481214661094555</v>
+        <v>0.8647878407410303</v>
       </c>
       <c r="C6">
-        <v>0.1268643921974473</v>
+        <v>0.03935333415734021</v>
       </c>
       <c r="D6">
-        <v>0.06970388120088877</v>
+        <v>0.1158473065081065</v>
       </c>
       <c r="E6">
-        <v>0.02311705351657878</v>
+        <v>0.06036394541826429</v>
       </c>
       <c r="F6">
-        <v>1.302050356469309</v>
+        <v>2.055678263633055</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,22 +630,22 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9389222504458274</v>
+        <v>1.688788136566572</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9654908877561468</v>
+        <v>0.6698365165329108</v>
       </c>
       <c r="L6">
-        <v>0.141375396786998</v>
+        <v>0.220061959209751</v>
       </c>
       <c r="M6">
-        <v>0.2031268941083368</v>
+        <v>0.2262971057268679</v>
       </c>
       <c r="N6">
-        <v>1.724770636038834</v>
+        <v>3.06521791065785</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.991924927164348</v>
+        <v>0.8748295069701726</v>
       </c>
       <c r="C7">
-        <v>0.1334225148266626</v>
+        <v>0.04131226869255045</v>
       </c>
       <c r="D7">
-        <v>0.06937094351638429</v>
+        <v>0.1158204129297395</v>
       </c>
       <c r="E7">
-        <v>0.02318363449856253</v>
+        <v>0.06030994392685685</v>
       </c>
       <c r="F7">
-        <v>1.32363294668923</v>
+        <v>2.058199704766324</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,22 +677,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9462176164210803</v>
+        <v>1.688401200293171</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.012711096286239</v>
+        <v>0.6814410093191441</v>
       </c>
       <c r="L7">
-        <v>0.1455478160208088</v>
+        <v>0.2207473485614173</v>
       </c>
       <c r="M7">
-        <v>0.2116394560505697</v>
+        <v>0.2281130731641774</v>
       </c>
       <c r="N7">
-        <v>1.713940518200246</v>
+        <v>3.060233456538789</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.187686819497117</v>
+        <v>0.9203055263999147</v>
       </c>
       <c r="C8">
-        <v>0.1626378578211529</v>
+        <v>0.04994450224847924</v>
       </c>
       <c r="D8">
-        <v>0.06790851319957447</v>
+        <v>0.1157004789457989</v>
       </c>
       <c r="E8">
-        <v>0.0235190710348645</v>
+        <v>0.06010300888564046</v>
       </c>
       <c r="F8">
-        <v>1.42358681211492</v>
+        <v>2.071428879898548</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,22 +724,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9814442440438143</v>
+        <v>1.688139452461634</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.223569440257933</v>
+        <v>0.7335916972905068</v>
       </c>
       <c r="L8">
-        <v>0.1644105375856668</v>
+        <v>0.22401283162948</v>
       </c>
       <c r="M8">
-        <v>0.2497869891208779</v>
+        <v>0.2364165245222765</v>
       </c>
       <c r="N8">
-        <v>1.669878930160351</v>
+        <v>3.039922598852954</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.582701553600231</v>
+        <v>1.013660706941948</v>
       </c>
       <c r="C9">
-        <v>0.2213444268206786</v>
+        <v>0.06683506623942037</v>
       </c>
       <c r="D9">
-        <v>0.06505520949355414</v>
+        <v>0.115460497481763</v>
       </c>
       <c r="E9">
-        <v>0.02433583559947472</v>
+        <v>0.05980936469564391</v>
       </c>
       <c r="F9">
-        <v>1.639044986016771</v>
+        <v>2.104936121109688</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,22 +771,22 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.062766504146097</v>
+        <v>1.6928234064912</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.648550737671655</v>
+        <v>0.839250430535202</v>
       </c>
       <c r="L9">
-        <v>0.2032952622927269</v>
+        <v>0.2312812078828586</v>
       </c>
       <c r="M9">
-        <v>0.3271591468231421</v>
+        <v>0.253739939928586</v>
       </c>
       <c r="N9">
-        <v>1.597911300151168</v>
+        <v>3.006150687704675</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.882068796139833</v>
+        <v>1.084799269779126</v>
       </c>
       <c r="C10">
-        <v>0.2657848353322834</v>
+        <v>0.07922924020277833</v>
       </c>
       <c r="D10">
-        <v>0.06295822216072722</v>
+        <v>0.1152810079933015</v>
       </c>
       <c r="E10">
-        <v>0.0250425893831272</v>
+        <v>0.05966152085901477</v>
       </c>
       <c r="F10">
-        <v>1.811804587760037</v>
+        <v>2.13418016930774</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.131369681199942</v>
+        <v>1.699437477044697</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.970464421001907</v>
+        <v>0.9189607810573648</v>
       </c>
       <c r="L10">
-        <v>0.2333054426590024</v>
+        <v>0.2371483412926949</v>
       </c>
       <c r="M10">
-        <v>0.3860573611463991</v>
+        <v>0.2671022574942299</v>
       </c>
       <c r="N10">
-        <v>1.554907100060873</v>
+        <v>2.985034759134194</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.020824756105355</v>
+        <v>1.117717361209884</v>
       </c>
       <c r="C11">
-        <v>0.2863961466573528</v>
+        <v>0.08486599471871159</v>
       </c>
       <c r="D11">
-        <v>0.06200195854320256</v>
+        <v>0.1151986118552717</v>
       </c>
       <c r="E11">
-        <v>0.02538965802962601</v>
+        <v>0.05960890761057946</v>
       </c>
       <c r="F11">
-        <v>1.894175914238005</v>
+        <v>2.148492139862341</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.164843028605759</v>
+        <v>1.703136487916495</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.119669149646796</v>
+        <v>0.9556792736053978</v>
       </c>
       <c r="L11">
-        <v>0.2473406878520734</v>
+        <v>0.2399319355212981</v>
       </c>
       <c r="M11">
-        <v>0.4134170269737965</v>
+        <v>0.2733192051428475</v>
       </c>
       <c r="N11">
-        <v>1.537749848365607</v>
+        <v>2.976232028045274</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.073790596605932</v>
+        <v>1.130262590177949</v>
       </c>
       <c r="C12">
-        <v>0.2942680621946181</v>
+        <v>0.08700039087523237</v>
       </c>
       <c r="D12">
-        <v>0.0616393311505643</v>
+        <v>0.115167299728494</v>
       </c>
       <c r="E12">
-        <v>0.02552497676111543</v>
+        <v>0.05959108145640002</v>
       </c>
       <c r="F12">
-        <v>1.925970129574168</v>
+        <v>2.154056945733203</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,22 +912,22 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.17787559523542</v>
+        <v>1.704636515718377</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.176626443743629</v>
+        <v>0.9696495702090715</v>
       </c>
       <c r="L12">
-        <v>0.2527169538443275</v>
+        <v>0.2410024752727935</v>
       </c>
       <c r="M12">
-        <v>0.4238697630095345</v>
+        <v>0.2756932812352204</v>
       </c>
       <c r="N12">
-        <v>1.53162325372432</v>
+        <v>2.973014223188926</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.062363807355382</v>
+        <v>1.127557202004141</v>
       </c>
       <c r="C13">
-        <v>0.2925695602925487</v>
+        <v>0.08654071450109768</v>
       </c>
       <c r="D13">
-        <v>0.06171745503973902</v>
+        <v>0.115174048320501</v>
       </c>
       <c r="E13">
-        <v>0.02549565674383381</v>
+        <v>0.05959482748649236</v>
       </c>
       <c r="F13">
-        <v>1.919094919887499</v>
+        <v>2.152852006616072</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,22 +959,22 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.175052396537041</v>
+        <v>1.704309041201483</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.164338358211126</v>
+        <v>0.9666378909718674</v>
       </c>
       <c r="L13">
-        <v>0.2515562409109577</v>
+        <v>0.240771184058417</v>
       </c>
       <c r="M13">
-        <v>0.4216142958609623</v>
+        <v>0.275181099190732</v>
       </c>
       <c r="N13">
-        <v>1.532925831767201</v>
+        <v>2.973702091713534</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.025173515431447</v>
+        <v>1.118747865356909</v>
       </c>
       <c r="C14">
-        <v>0.2870423729044944</v>
+        <v>0.08504159471027606</v>
       </c>
       <c r="D14">
-        <v>0.06197213623982378</v>
+        <v>0.1151960380203825</v>
       </c>
       <c r="E14">
-        <v>0.02540071149147494</v>
+        <v>0.05960739905455981</v>
       </c>
       <c r="F14">
-        <v>1.896779226767336</v>
+        <v>2.148947049590106</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,22 +1006,22 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.165907883294707</v>
+        <v>1.703257905911357</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.124345549013668</v>
+        <v>0.9568272997885572</v>
       </c>
       <c r="L14">
-        <v>0.2477817274984346</v>
+        <v>0.2400196798817404</v>
       </c>
       <c r="M14">
-        <v>0.4142750664687753</v>
+        <v>0.2735141241756693</v>
       </c>
       <c r="N14">
-        <v>1.53723823560864</v>
+        <v>2.975964979803109</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.002449967609721</v>
+        <v>1.113362286660617</v>
       </c>
       <c r="C15">
-        <v>0.2836658328038197</v>
+        <v>0.08412332734548045</v>
       </c>
       <c r="D15">
-        <v>0.06212806395590142</v>
+        <v>0.1152094928617569</v>
       </c>
       <c r="E15">
-        <v>0.02534306827582355</v>
+        <v>0.0596153723990458</v>
       </c>
       <c r="F15">
-        <v>1.883190432613958</v>
+        <v>2.146574060187774</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.160354062953672</v>
+        <v>1.702626987181148</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.0999101241473</v>
+        <v>0.9508265974651806</v>
       </c>
       <c r="L15">
-        <v>0.2454779241279255</v>
+        <v>0.2395615037452359</v>
       </c>
       <c r="M15">
-        <v>0.4097919226315767</v>
+        <v>0.2724956380074843</v>
       </c>
       <c r="N15">
-        <v>1.539928724476368</v>
+        <v>2.977366122231416</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.873056873933024</v>
+        <v>1.082659181756952</v>
       </c>
       <c r="C16">
-        <v>0.2644466250188486</v>
+        <v>0.07886084363900636</v>
       </c>
       <c r="D16">
-        <v>0.06302065440903704</v>
+        <v>0.115286377488502</v>
       </c>
       <c r="E16">
-        <v>0.02502044000845149</v>
+        <v>0.05966525319135307</v>
       </c>
       <c r="F16">
-        <v>1.80650238167425</v>
+        <v>2.13326515652048</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,22 +1100,22 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.129230305317236</v>
+        <v>1.699209630462676</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.960774105449389</v>
+        <v>0.9165703510646779</v>
       </c>
       <c r="L16">
-        <v>0.2323964471020048</v>
+        <v>0.2369687306962618</v>
       </c>
       <c r="M16">
-        <v>0.3842816407848417</v>
+        <v>0.2666987458258845</v>
       </c>
       <c r="N16">
-        <v>1.556078820731216</v>
+        <v>2.985626207658072</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.794372822361709</v>
+        <v>1.063966284817809</v>
       </c>
       <c r="C17">
-        <v>0.2527643106720774</v>
+        <v>0.07563217656398535</v>
       </c>
       <c r="D17">
-        <v>0.06356750902156527</v>
+        <v>0.1153333503884895</v>
       </c>
       <c r="E17">
-        <v>0.0248292126867895</v>
+        <v>0.05969959773082234</v>
       </c>
       <c r="F17">
-        <v>1.760465146504075</v>
+        <v>2.125359015237976</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,22 +1147,22 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.110738412309644</v>
+        <v>1.697290004949039</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.87616714888722</v>
+        <v>0.8956724927276696</v>
       </c>
       <c r="L17">
-        <v>0.2244738971361642</v>
+        <v>0.235407482276031</v>
       </c>
       <c r="M17">
-        <v>0.368784373280036</v>
+        <v>0.263177947090611</v>
       </c>
       <c r="N17">
-        <v>1.566619270538212</v>
+        <v>2.990899261574242</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.749354569036484</v>
+        <v>1.053267045880858</v>
       </c>
       <c r="C18">
-        <v>0.2460814895927967</v>
+        <v>0.07377499425244594</v>
       </c>
       <c r="D18">
-        <v>0.06388183653842283</v>
+        <v>0.1153602979775155</v>
       </c>
       <c r="E18">
-        <v>0.02472161590323196</v>
+        <v>0.05972073042496717</v>
       </c>
       <c r="F18">
-        <v>1.734337957613562</v>
+        <v>2.120906548548319</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.100313568798867</v>
+        <v>1.696250853091236</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.827759831056028</v>
+        <v>0.8836956949030537</v>
       </c>
       <c r="L18">
-        <v>0.2199527419209488</v>
+        <v>0.2345202823214407</v>
       </c>
       <c r="M18">
-        <v>0.3599233849940475</v>
+        <v>0.2611659026584192</v>
       </c>
       <c r="N18">
-        <v>1.572906681189295</v>
+        <v>2.994007758045925</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.734151653456905</v>
+        <v>1.049653477071757</v>
       </c>
       <c r="C19">
-        <v>0.2438247862870782</v>
+        <v>0.07314615792333257</v>
       </c>
       <c r="D19">
-        <v>0.06398823182716384</v>
+        <v>0.1153694100518585</v>
       </c>
       <c r="E19">
-        <v>0.02468559006897131</v>
+        <v>0.05972812261995752</v>
       </c>
       <c r="F19">
-        <v>1.725550547381189</v>
+        <v>2.119415321625397</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.096819266466191</v>
+        <v>1.695910171001046</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.811412260848613</v>
+        <v>0.8796479602120542</v>
       </c>
       <c r="L19">
-        <v>0.2184279030339127</v>
+        <v>0.2342217454880569</v>
       </c>
       <c r="M19">
-        <v>0.3569319337814392</v>
+        <v>0.2604868975245864</v>
       </c>
       <c r="N19">
-        <v>1.575073392537035</v>
+        <v>2.995073217901734</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.802723803824961</v>
+        <v>1.065950751730924</v>
       </c>
       <c r="C20">
-        <v>0.2540040618958557</v>
+        <v>0.07597588740762262</v>
       </c>
       <c r="D20">
-        <v>0.06350931827641659</v>
+        <v>0.1153283573103252</v>
       </c>
       <c r="E20">
-        <v>0.02484932008627361</v>
+        <v>0.05969579907263167</v>
       </c>
       <c r="F20">
-        <v>1.765329032079407</v>
+        <v>2.126190811001223</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.112684830284508</v>
+        <v>1.697487628358331</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.885146759646261</v>
+        <v>0.8978926452757605</v>
       </c>
       <c r="L20">
-        <v>0.2253135289895738</v>
+        <v>0.2355725634291872</v>
       </c>
       <c r="M20">
-        <v>0.3704285620189935</v>
+        <v>0.2635513943133603</v>
       </c>
       <c r="N20">
-        <v>1.565473782742146</v>
+        <v>2.990330113303656</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.036085314725483</v>
+        <v>1.121333215258403</v>
       </c>
       <c r="C21">
-        <v>0.2886639423654458</v>
+        <v>0.08548192513575259</v>
       </c>
       <c r="D21">
-        <v>0.0618973454982843</v>
+        <v>0.1151895821367006</v>
       </c>
       <c r="E21">
-        <v>0.02542849179010176</v>
+        <v>0.05960364962342091</v>
       </c>
       <c r="F21">
-        <v>1.9033170592229</v>
+        <v>2.150090089173617</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.168583898526222</v>
+        <v>1.703563954741128</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.136079512877444</v>
+        <v>0.9597071227229605</v>
       </c>
       <c r="L21">
-        <v>0.2488886737251619</v>
+        <v>0.2402399685594787</v>
       </c>
       <c r="M21">
-        <v>0.4164281825493745</v>
+        <v>0.2740032166854078</v>
       </c>
       <c r="N21">
-        <v>1.535961315792164</v>
+        <v>2.975297176384458</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.191087823002533</v>
+        <v>1.15799426125011</v>
       </c>
       <c r="C22">
-        <v>0.3117112770739823</v>
+        <v>0.09169400712855236</v>
       </c>
       <c r="D22">
-        <v>0.06084076311669584</v>
+        <v>0.1150982390495301</v>
       </c>
       <c r="E22">
-        <v>0.0258298100739065</v>
+        <v>0.05955564581912576</v>
       </c>
       <c r="F22">
-        <v>1.997039980552202</v>
+        <v>2.166555888893527</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,22 +1382,22 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.20721428016715</v>
+        <v>1.708113957990662</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.302772117121151</v>
+        <v>1.000489975969458</v>
       </c>
       <c r="L22">
-        <v>0.2646577449965548</v>
+        <v>0.2433862761354106</v>
       </c>
       <c r="M22">
-        <v>0.4470348618155811</v>
+        <v>0.2809497852379437</v>
       </c>
       <c r="N22">
-        <v>1.518845816404991</v>
+        <v>2.966146140201388</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.108114000835201</v>
+        <v>1.138385053603201</v>
       </c>
       <c r="C23">
-        <v>0.2993707486468509</v>
+        <v>0.08837853512977745</v>
       </c>
       <c r="D23">
-        <v>0.06140502104791778</v>
+        <v>0.1151470506891705</v>
       </c>
       <c r="E23">
-        <v>0.02561345678985383</v>
+        <v>0.05958015077766277</v>
       </c>
       <c r="F23">
-        <v>1.946673766661391</v>
+        <v>2.157690309387405</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,22 +1429,22 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.186393561605641</v>
+        <v>1.705632564911454</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.213537661199069</v>
+        <v>0.9786883197214138</v>
       </c>
       <c r="L23">
-        <v>0.2562062064306474</v>
+        <v>0.2416982676358401</v>
       </c>
       <c r="M23">
-        <v>0.4306459787470018</v>
+        <v>0.2772316986358803</v>
       </c>
       <c r="N23">
-        <v>1.527773145056969</v>
+        <v>2.970968519723385</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.79894764916483</v>
+        <v>1.065053426090344</v>
       </c>
       <c r="C24">
-        <v>0.2534434667784211</v>
+        <v>0.07582049879198394</v>
       </c>
       <c r="D24">
-        <v>0.06353562650607536</v>
+        <v>0.1153306148588982</v>
       </c>
       <c r="E24">
-        <v>0.0248402222511146</v>
+        <v>0.05969751212358876</v>
       </c>
       <c r="F24">
-        <v>1.76312901399578</v>
+        <v>2.125814466821296</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,22 +1476,22 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.111804214174228</v>
+        <v>1.697398081998067</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.881086352083315</v>
+        <v>0.89688879700347</v>
       </c>
       <c r="L24">
-        <v>0.2249338271644632</v>
+        <v>0.2354978978981563</v>
       </c>
       <c r="M24">
-        <v>0.3696850737214206</v>
+        <v>0.2633825211006879</v>
       </c>
       <c r="N24">
-        <v>1.565990950787608</v>
+        <v>2.990587185535958</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.474415601059093</v>
+        <v>0.9879580745888745</v>
       </c>
       <c r="C25">
-        <v>0.2052675161997399</v>
+        <v>0.06226894508658631</v>
       </c>
       <c r="D25">
-        <v>0.06582651588148281</v>
+        <v>0.1155259586164856</v>
       </c>
       <c r="E25">
-        <v>0.0240968989577155</v>
+        <v>0.05987684571732199</v>
       </c>
       <c r="F25">
-        <v>1.578419515515037</v>
+        <v>2.095060163703309</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,22 +1523,22 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.039319173109241</v>
+        <v>1.690999427525355</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.532089013169781</v>
+        <v>0.810302290148968</v>
       </c>
       <c r="L25">
-        <v>0.1925448377970227</v>
+        <v>0.2292223546109327</v>
       </c>
       <c r="M25">
-        <v>0.305905184524832</v>
+        <v>0.2489420619134819</v>
       </c>
       <c r="N25">
-        <v>1.615730059845404</v>
+        <v>3.014638037130226</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_188/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_188/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9329097690173285</v>
+        <v>1.24140014080939</v>
       </c>
       <c r="C2">
-        <v>0.05228061303763809</v>
+        <v>0.1706343076735237</v>
       </c>
       <c r="D2">
-        <v>0.1156676683936873</v>
+        <v>0.06751359442655769</v>
       </c>
       <c r="E2">
-        <v>0.06005454773046726</v>
+        <v>0.023620380440045</v>
       </c>
       <c r="F2">
-        <v>2.075524740652597</v>
+        <v>1.451896072162839</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,22 +442,22 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.688420095166613</v>
+        <v>0.9917696804985638</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7479508682363019</v>
+        <v>1.281387157762993</v>
       </c>
       <c r="L2">
-        <v>0.2249561431623661</v>
+        <v>0.169639775851536</v>
       </c>
       <c r="M2">
-        <v>0.2387367315177471</v>
+        <v>0.2602798259418613</v>
       </c>
       <c r="N2">
-        <v>3.034829201778081</v>
+        <v>1.658880940108816</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8966713425648436</v>
+        <v>1.086402342336243</v>
       </c>
       <c r="C3">
-        <v>0.04550233385448621</v>
+        <v>0.1475387074667509</v>
       </c>
       <c r="D3">
-        <v>0.1157624700084838</v>
+        <v>0.06866030321732453</v>
       </c>
       <c r="E3">
-        <v>0.06020361776105077</v>
+        <v>0.02333836911222242</v>
       </c>
       <c r="F3">
-        <v>2.06421932893889</v>
+        <v>1.371201180165542</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,22 +489,22 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.688000342013609</v>
+        <v>0.9627165563099283</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7065628561795165</v>
+        <v>1.114505258099996</v>
       </c>
       <c r="L3">
-        <v>0.2222859337750123</v>
+        <v>0.1546101678689027</v>
       </c>
       <c r="M3">
-        <v>0.2320865127834075</v>
+        <v>0.2300301833569129</v>
       </c>
       <c r="N3">
-        <v>3.050060697382982</v>
+        <v>1.691845468776656</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8749476440333126</v>
+        <v>0.9924387309710312</v>
       </c>
       <c r="C4">
-        <v>0.04133518365787836</v>
+        <v>0.1334993851321826</v>
       </c>
       <c r="D4">
-        <v>0.1158200975665409</v>
+        <v>0.06936705188934589</v>
       </c>
       <c r="E4">
-        <v>0.06030932923139698</v>
+        <v>0.02318443594357245</v>
       </c>
       <c r="F4">
-        <v>2.058230358761762</v>
+        <v>1.323887958769518</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,22 +536,22 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.688397463660664</v>
+        <v>0.946304582213088</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6815773114576018</v>
+        <v>1.013264877800992</v>
       </c>
       <c r="L4">
-        <v>0.2207555003845272</v>
+        <v>0.1455968728904935</v>
       </c>
       <c r="M4">
-        <v>0.2281344809301373</v>
+        <v>0.2117393619757202</v>
       </c>
       <c r="N4">
-        <v>3.060176053919903</v>
+        <v>1.713815788181883</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.86622775164426</v>
+        <v>0.9544191041822785</v>
       </c>
       <c r="C5">
-        <v>0.03963563088287003</v>
+        <v>0.1278078472481781</v>
       </c>
       <c r="D5">
-        <v>0.1158434391262482</v>
+        <v>0.06965587000573592</v>
       </c>
       <c r="E5">
-        <v>0.06035598249798912</v>
+        <v>0.02312640864080695</v>
       </c>
       <c r="F5">
-        <v>2.056029287262149</v>
+        <v>1.305133697445271</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,22 +583,22 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.688723973268502</v>
+        <v>0.939956374544586</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6715028810066883</v>
+        <v>0.9722808266233187</v>
       </c>
       <c r="L5">
-        <v>0.2201592984920069</v>
+        <v>0.1419740442878989</v>
       </c>
       <c r="M5">
-        <v>0.2265570411517146</v>
+        <v>0.2043501582552238</v>
       </c>
       <c r="N5">
-        <v>3.064489997482568</v>
+        <v>1.723189210367607</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8647878407410303</v>
+        <v>0.948121466109427</v>
       </c>
       <c r="C6">
-        <v>0.03935333415734021</v>
+        <v>0.1268643921973336</v>
       </c>
       <c r="D6">
-        <v>0.1158473065081065</v>
+        <v>0.06970388120087812</v>
       </c>
       <c r="E6">
-        <v>0.06036394541826429</v>
+        <v>0.02311705351658677</v>
       </c>
       <c r="F6">
-        <v>2.055678263633055</v>
+        <v>1.302050356469294</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,22 +630,22 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.688788136566572</v>
+        <v>0.9389222504458488</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6698365165329108</v>
+        <v>0.9654908877561184</v>
       </c>
       <c r="L6">
-        <v>0.220061959209751</v>
+        <v>0.1413753967870335</v>
       </c>
       <c r="M6">
-        <v>0.2262971057268679</v>
+        <v>0.2031268941083333</v>
       </c>
       <c r="N6">
-        <v>3.06521791065785</v>
+        <v>1.724770636038798</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8748295069701726</v>
+        <v>0.9919249271642343</v>
       </c>
       <c r="C7">
-        <v>0.04131226869255045</v>
+        <v>0.1334225148268047</v>
       </c>
       <c r="D7">
-        <v>0.1158204129297395</v>
+        <v>0.06937094351642514</v>
       </c>
       <c r="E7">
-        <v>0.06030994392685685</v>
+        <v>0.02318363449855987</v>
       </c>
       <c r="F7">
-        <v>2.058199704766324</v>
+        <v>1.32363294668923</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,22 +677,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.688401200293171</v>
+        <v>0.9462176164210732</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6814410093191441</v>
+        <v>1.012711096286182</v>
       </c>
       <c r="L7">
-        <v>0.2207473485614173</v>
+        <v>0.1455478160207804</v>
       </c>
       <c r="M7">
-        <v>0.2281130731641774</v>
+        <v>0.2116394560505519</v>
       </c>
       <c r="N7">
-        <v>3.060233456538789</v>
+        <v>1.713940518200239</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9203055263999147</v>
+        <v>1.18768681949706</v>
       </c>
       <c r="C8">
-        <v>0.04994450224847924</v>
+        <v>0.1626378578208687</v>
       </c>
       <c r="D8">
-        <v>0.1157004789457989</v>
+        <v>0.0679085131995798</v>
       </c>
       <c r="E8">
-        <v>0.06010300888564046</v>
+        <v>0.02351907103486361</v>
       </c>
       <c r="F8">
-        <v>2.071428879898548</v>
+        <v>1.42358681211492</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,22 +724,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.688139452461634</v>
+        <v>0.9814442440438143</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7335916972905068</v>
+        <v>1.223569440257904</v>
       </c>
       <c r="L8">
-        <v>0.22401283162948</v>
+        <v>0.1644105375856668</v>
       </c>
       <c r="M8">
-        <v>0.2364165245222765</v>
+        <v>0.2497869891208566</v>
       </c>
       <c r="N8">
-        <v>3.039922598852954</v>
+        <v>1.669878930160294</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.013660706941948</v>
+        <v>1.582701553600231</v>
       </c>
       <c r="C9">
-        <v>0.06683506623942037</v>
+        <v>0.221344426820707</v>
       </c>
       <c r="D9">
-        <v>0.115460497481763</v>
+        <v>0.06505520949370336</v>
       </c>
       <c r="E9">
-        <v>0.05980936469564391</v>
+        <v>0.02433583559943919</v>
       </c>
       <c r="F9">
-        <v>2.104936121109688</v>
+        <v>1.639044986016785</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,22 +771,22 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.6928234064912</v>
+        <v>1.062766504146097</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.839250430535202</v>
+        <v>1.648550737671655</v>
       </c>
       <c r="L9">
-        <v>0.2312812078828586</v>
+        <v>0.2032952622925848</v>
       </c>
       <c r="M9">
-        <v>0.253739939928586</v>
+        <v>0.3271591468231208</v>
       </c>
       <c r="N9">
-        <v>3.006150687704675</v>
+        <v>1.597911300151225</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.084799269779126</v>
+        <v>1.88206879613972</v>
       </c>
       <c r="C10">
-        <v>0.07922924020277833</v>
+        <v>0.2657848353325534</v>
       </c>
       <c r="D10">
-        <v>0.1152810079933015</v>
+        <v>0.06295822216073077</v>
       </c>
       <c r="E10">
-        <v>0.05966152085901477</v>
+        <v>0.02504258938310677</v>
       </c>
       <c r="F10">
-        <v>2.13418016930774</v>
+        <v>1.811804587760022</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.699437477044697</v>
+        <v>1.131369681199949</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9189607810573648</v>
+        <v>1.970464421001964</v>
       </c>
       <c r="L10">
-        <v>0.2371483412926949</v>
+        <v>0.2333054426588745</v>
       </c>
       <c r="M10">
-        <v>0.2671022574942299</v>
+        <v>0.386057361146392</v>
       </c>
       <c r="N10">
-        <v>2.985034759134194</v>
+        <v>1.554907100060845</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.117717361209884</v>
+        <v>2.020824756105242</v>
       </c>
       <c r="C11">
-        <v>0.08486599471871159</v>
+        <v>0.2863961466575802</v>
       </c>
       <c r="D11">
-        <v>0.1151986118552717</v>
+        <v>0.06200195854309243</v>
       </c>
       <c r="E11">
-        <v>0.05960890761057946</v>
+        <v>0.02538965802962778</v>
       </c>
       <c r="F11">
-        <v>2.148492139862341</v>
+        <v>1.894175914238019</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.703136487916495</v>
+        <v>1.164843028605745</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9556792736053978</v>
+        <v>2.119669149646796</v>
       </c>
       <c r="L11">
-        <v>0.2399319355212981</v>
+        <v>0.247340687852045</v>
       </c>
       <c r="M11">
-        <v>0.2733192051428475</v>
+        <v>0.4134170269738036</v>
       </c>
       <c r="N11">
-        <v>2.976232028045274</v>
+        <v>1.537749848365635</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.130262590177949</v>
+        <v>2.073790596606159</v>
       </c>
       <c r="C12">
-        <v>0.08700039087523237</v>
+        <v>0.2942680621944191</v>
       </c>
       <c r="D12">
-        <v>0.115167299728494</v>
+        <v>0.06163933115087872</v>
       </c>
       <c r="E12">
-        <v>0.05959108145640002</v>
+        <v>0.02552497676110121</v>
       </c>
       <c r="F12">
-        <v>2.154056945733203</v>
+        <v>1.925970129574182</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,22 +912,22 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.704636515718377</v>
+        <v>1.17787559523542</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9696495702090715</v>
+        <v>2.176626443743629</v>
       </c>
       <c r="L12">
-        <v>0.2410024752727935</v>
+        <v>0.2527169538444127</v>
       </c>
       <c r="M12">
-        <v>0.2756932812352204</v>
+        <v>0.4238697630095274</v>
       </c>
       <c r="N12">
-        <v>2.973014223188926</v>
+        <v>1.531623253724305</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.127557202004141</v>
+        <v>2.062363807355666</v>
       </c>
       <c r="C13">
-        <v>0.08654071450109768</v>
+        <v>0.292569560292435</v>
       </c>
       <c r="D13">
-        <v>0.115174048320501</v>
+        <v>0.06171745503995041</v>
       </c>
       <c r="E13">
-        <v>0.05959482748649236</v>
+        <v>0.02549565674385157</v>
       </c>
       <c r="F13">
-        <v>2.152852006616072</v>
+        <v>1.919094919887456</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,22 +959,22 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.704309041201483</v>
+        <v>1.175052396537041</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9666378909718674</v>
+        <v>2.164338358210983</v>
       </c>
       <c r="L13">
-        <v>0.240771184058417</v>
+        <v>0.2515562409109577</v>
       </c>
       <c r="M13">
-        <v>0.275181099190732</v>
+        <v>0.4216142958609623</v>
       </c>
       <c r="N13">
-        <v>2.973702091713534</v>
+        <v>1.532925831767244</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.118747865356909</v>
+        <v>2.025173515431561</v>
       </c>
       <c r="C14">
-        <v>0.08504159471027606</v>
+        <v>0.287042372904466</v>
       </c>
       <c r="D14">
-        <v>0.1151960380203825</v>
+        <v>0.06197213623972075</v>
       </c>
       <c r="E14">
-        <v>0.05960739905455981</v>
+        <v>0.02540071149146783</v>
       </c>
       <c r="F14">
-        <v>2.148947049590106</v>
+        <v>1.89677922676735</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,22 +1006,22 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.703257905911357</v>
+        <v>1.165907883294707</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9568272997885572</v>
+        <v>2.124345549013583</v>
       </c>
       <c r="L14">
-        <v>0.2400196798817404</v>
+        <v>0.2477817274983067</v>
       </c>
       <c r="M14">
-        <v>0.2735141241756693</v>
+        <v>0.4142750664687824</v>
       </c>
       <c r="N14">
-        <v>2.975964979803109</v>
+        <v>1.537238235608683</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.113362286660617</v>
+        <v>2.002449967609664</v>
       </c>
       <c r="C15">
-        <v>0.08412332734548045</v>
+        <v>0.2836658328038197</v>
       </c>
       <c r="D15">
-        <v>0.1152094928617569</v>
+        <v>0.0621280639558961</v>
       </c>
       <c r="E15">
-        <v>0.0596153723990458</v>
+        <v>0.02534306827582355</v>
       </c>
       <c r="F15">
-        <v>2.146574060187774</v>
+        <v>1.883190432613986</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.702626987181148</v>
+        <v>1.160354062953687</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9508265974651806</v>
+        <v>2.099910124147243</v>
       </c>
       <c r="L15">
-        <v>0.2395615037452359</v>
+        <v>0.245477924127897</v>
       </c>
       <c r="M15">
-        <v>0.2724956380074843</v>
+        <v>0.4097919226315838</v>
       </c>
       <c r="N15">
-        <v>2.977366122231416</v>
+        <v>1.539928724476468</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.082659181756952</v>
+        <v>1.873056873932967</v>
       </c>
       <c r="C16">
-        <v>0.07886084363900636</v>
+        <v>0.2644466250188486</v>
       </c>
       <c r="D16">
-        <v>0.115286377488502</v>
+        <v>0.06302065440915605</v>
       </c>
       <c r="E16">
-        <v>0.05966525319135307</v>
+        <v>0.02502044000845771</v>
       </c>
       <c r="F16">
-        <v>2.13326515652048</v>
+        <v>1.806502381674264</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,22 +1100,22 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.699209630462676</v>
+        <v>1.129230305317243</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9165703510646779</v>
+        <v>1.960774105449445</v>
       </c>
       <c r="L16">
-        <v>0.2369687306962618</v>
+        <v>0.2323964471020616</v>
       </c>
       <c r="M16">
-        <v>0.2666987458258845</v>
+        <v>0.3842816407848488</v>
       </c>
       <c r="N16">
-        <v>2.985626207658072</v>
+        <v>1.556078820731216</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.063966284817809</v>
+        <v>1.794372822361765</v>
       </c>
       <c r="C17">
-        <v>0.07563217656398535</v>
+        <v>0.2527643106719637</v>
       </c>
       <c r="D17">
-        <v>0.1153333503884895</v>
+        <v>0.06356750902159547</v>
       </c>
       <c r="E17">
-        <v>0.05969959773082234</v>
+        <v>0.02482921268681526</v>
       </c>
       <c r="F17">
-        <v>2.125359015237976</v>
+        <v>1.76046514650406</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,22 +1147,22 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.697290004949039</v>
+        <v>1.110738412309658</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8956724927276696</v>
+        <v>1.87616714888722</v>
       </c>
       <c r="L17">
-        <v>0.235407482276031</v>
+        <v>0.224473897136221</v>
       </c>
       <c r="M17">
-        <v>0.263177947090611</v>
+        <v>0.368784373280036</v>
       </c>
       <c r="N17">
-        <v>2.990899261574242</v>
+        <v>1.566619270538169</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.053267045880858</v>
+        <v>1.749354569036512</v>
       </c>
       <c r="C18">
-        <v>0.07377499425244594</v>
+        <v>0.246081489593081</v>
       </c>
       <c r="D18">
-        <v>0.1153602979775155</v>
+        <v>0.06388183653840507</v>
       </c>
       <c r="E18">
-        <v>0.05972073042496717</v>
+        <v>0.0247216159032595</v>
       </c>
       <c r="F18">
-        <v>2.120906548548319</v>
+        <v>1.734337957613604</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.696250853091236</v>
+        <v>1.100313568798867</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8836956949030537</v>
+        <v>1.827759831055943</v>
       </c>
       <c r="L18">
-        <v>0.2345202823214407</v>
+        <v>0.2199527419208778</v>
       </c>
       <c r="M18">
-        <v>0.2611659026584192</v>
+        <v>0.3599233849940475</v>
       </c>
       <c r="N18">
-        <v>2.994007758045925</v>
+        <v>1.572906681189281</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.049653477071757</v>
+        <v>1.734151653456848</v>
       </c>
       <c r="C19">
-        <v>0.07314615792333257</v>
+        <v>0.243824786287405</v>
       </c>
       <c r="D19">
-        <v>0.1153694100518585</v>
+        <v>0.06398823182714786</v>
       </c>
       <c r="E19">
-        <v>0.05972812261995752</v>
+        <v>0.02468559006896509</v>
       </c>
       <c r="F19">
-        <v>2.119415321625397</v>
+        <v>1.725550547381189</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.695910171001046</v>
+        <v>1.09681926646617</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8796479602120542</v>
+        <v>1.81141226084867</v>
       </c>
       <c r="L19">
-        <v>0.2342217454880569</v>
+        <v>0.2184279030339411</v>
       </c>
       <c r="M19">
-        <v>0.2604868975245864</v>
+        <v>0.3569319337814321</v>
       </c>
       <c r="N19">
-        <v>2.995073217901734</v>
+        <v>1.575073392537121</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.065950751730924</v>
+        <v>1.802723803824932</v>
       </c>
       <c r="C20">
-        <v>0.07597588740762262</v>
+        <v>0.2540040618961115</v>
       </c>
       <c r="D20">
-        <v>0.1153283573103252</v>
+        <v>0.06350931827643791</v>
       </c>
       <c r="E20">
-        <v>0.05969579907263167</v>
+        <v>0.02484932008627183</v>
       </c>
       <c r="F20">
-        <v>2.126190811001223</v>
+        <v>1.765329032079379</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.697487628358331</v>
+        <v>1.112684830284486</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8978926452757605</v>
+        <v>1.885146759646261</v>
       </c>
       <c r="L20">
-        <v>0.2355725634291872</v>
+        <v>0.2253135289894601</v>
       </c>
       <c r="M20">
-        <v>0.2635513943133603</v>
+        <v>0.3704285620189935</v>
       </c>
       <c r="N20">
-        <v>2.990330113303656</v>
+        <v>1.565473782742117</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.121333215258403</v>
+        <v>2.036085314725369</v>
       </c>
       <c r="C21">
-        <v>0.08548192513575259</v>
+        <v>0.2886639423654458</v>
       </c>
       <c r="D21">
-        <v>0.1151895821367006</v>
+        <v>0.06189734549828607</v>
       </c>
       <c r="E21">
-        <v>0.05960364962342091</v>
+        <v>0.02542849179011419</v>
       </c>
       <c r="F21">
-        <v>2.150090089173617</v>
+        <v>1.9033170592229</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.703563954741128</v>
+        <v>1.168583898526208</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9597071227229605</v>
+        <v>2.136079512877615</v>
       </c>
       <c r="L21">
-        <v>0.2402399685594787</v>
+        <v>0.2488886737252187</v>
       </c>
       <c r="M21">
-        <v>0.2740032166854078</v>
+        <v>0.4164281825493816</v>
       </c>
       <c r="N21">
-        <v>2.975297176384458</v>
+        <v>1.535961315792235</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.15799426125011</v>
+        <v>2.191087823002647</v>
       </c>
       <c r="C22">
-        <v>0.09169400712855236</v>
+        <v>0.3117112770743802</v>
       </c>
       <c r="D22">
-        <v>0.1150982390495301</v>
+        <v>0.06084076311669584</v>
       </c>
       <c r="E22">
-        <v>0.05955564581912576</v>
+        <v>0.02582981007388341</v>
       </c>
       <c r="F22">
-        <v>2.166555888893527</v>
+        <v>1.997039980552188</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,22 +1382,22 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.708113957990662</v>
+        <v>1.20721428016715</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.000489975969458</v>
+        <v>2.302772117121123</v>
       </c>
       <c r="L22">
-        <v>0.2433862761354106</v>
+        <v>0.2646577449965406</v>
       </c>
       <c r="M22">
-        <v>0.2809497852379437</v>
+        <v>0.4470348618155953</v>
       </c>
       <c r="N22">
-        <v>2.966146140201388</v>
+        <v>1.518845816404991</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.138385053603201</v>
+        <v>2.108114000835144</v>
       </c>
       <c r="C23">
-        <v>0.08837853512977745</v>
+        <v>0.299370748646794</v>
       </c>
       <c r="D23">
-        <v>0.1151470506891705</v>
+        <v>0.06140502104802437</v>
       </c>
       <c r="E23">
-        <v>0.05958015077766277</v>
+        <v>0.02561345678985383</v>
       </c>
       <c r="F23">
-        <v>2.157690309387405</v>
+        <v>1.946673766661377</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,22 +1429,22 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.705632564911454</v>
+        <v>1.186393561605627</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9786883197214138</v>
+        <v>2.213537661198984</v>
       </c>
       <c r="L23">
-        <v>0.2416982676358401</v>
+        <v>0.2562062064307042</v>
       </c>
       <c r="M23">
-        <v>0.2772316986358803</v>
+        <v>0.4306459787469947</v>
       </c>
       <c r="N23">
-        <v>2.970968519723385</v>
+        <v>1.527773145056912</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.065053426090344</v>
+        <v>1.798947649164973</v>
       </c>
       <c r="C24">
-        <v>0.07582049879198394</v>
+        <v>0.2534434667784353</v>
       </c>
       <c r="D24">
-        <v>0.1153306148588982</v>
+        <v>0.06353562650615885</v>
       </c>
       <c r="E24">
-        <v>0.05969751212358876</v>
+        <v>0.02484022225109861</v>
       </c>
       <c r="F24">
-        <v>2.125814466821296</v>
+        <v>1.763129013995808</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,22 +1476,22 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.697398081998067</v>
+        <v>1.111804214174221</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.89688879700347</v>
+        <v>1.881086352083344</v>
       </c>
       <c r="L24">
-        <v>0.2354978978981563</v>
+        <v>0.2249338271645058</v>
       </c>
       <c r="M24">
-        <v>0.2633825211006879</v>
+        <v>0.3696850737214135</v>
       </c>
       <c r="N24">
-        <v>2.990587185535958</v>
+        <v>1.565990950787594</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9879580745888745</v>
+        <v>1.474415601059093</v>
       </c>
       <c r="C25">
-        <v>0.06226894508658631</v>
+        <v>0.2052675161997257</v>
       </c>
       <c r="D25">
-        <v>0.1155259586164856</v>
+        <v>0.06582651588135491</v>
       </c>
       <c r="E25">
-        <v>0.05987684571732199</v>
+        <v>0.02409689895770484</v>
       </c>
       <c r="F25">
-        <v>2.095060163703309</v>
+        <v>1.578419515515023</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,22 +1523,22 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.690999427525355</v>
+        <v>1.039319173109227</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.810302290148968</v>
+        <v>1.532089013169724</v>
       </c>
       <c r="L25">
-        <v>0.2292223546109327</v>
+        <v>0.1925448377969801</v>
       </c>
       <c r="M25">
-        <v>0.2489420619134819</v>
+        <v>0.3059051845248533</v>
       </c>
       <c r="N25">
-        <v>3.014638037130226</v>
+        <v>1.615730059845504</v>
       </c>
       <c r="O25">
         <v>0</v>
